--- a/Documents/Deliverable_1/CSwap_Deliverable_1_SprintBacklog_1.xlsx
+++ b/Documents/Deliverable_1/CSwap_Deliverable_1_SprintBacklog_1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landonthibodeau/git/COS420_Project/Documents/Deliverable_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52D378F-FE22-B942-BC85-D60202BA1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440C06BB-B8D5-7140-9038-468C0D4818EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{49D0CED5-A062-EC43-94BD-79A001146B34}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{49D0CED5-A062-EC43-94BD-79A001146B34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -388,4 +389,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAF5FEC-D2F5-EA48-B9F9-F3BA054FB78A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Deliverable_1/CSwap_Deliverable_1_SprintBacklog_1.xlsx
+++ b/Documents/Deliverable_1/CSwap_Deliverable_1_SprintBacklog_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landonthibodeau/git/COS420_Project/Documents/Deliverable_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440C06BB-B8D5-7140-9038-468C0D4818EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095600A0-2F84-D24E-A870-D3A66EF5FA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{49D0CED5-A062-EC43-94BD-79A001146B34}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{49D0CED5-A062-EC43-94BD-79A001146B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Story Tasks</t>
+  </si>
+  <si>
+    <t>Sprint Number</t>
+  </si>
+  <si>
+    <t>Sprint Goal</t>
+  </si>
+  <si>
+    <t>Story Type</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Story Points Completed</t>
+  </si>
+  <si>
+    <t>Names and Contribution Percentage</t>
+  </si>
+  <si>
+    <t>As an unauthorized user I want create a new account so I can buy and sell items.</t>
+  </si>
+  <si>
+    <t>As an unauthorized user I want to login my account so that I can access my info.</t>
+  </si>
+  <si>
+    <t>As an authorized user I want to logout of my account so that a stranger cannot use my account</t>
+  </si>
+  <si>
+    <t>As an unauthorized user I want to use my google account so that I can use one of my own existing accounts.</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,15 +132,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,12 +484,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385E64C9-42DB-AB4F-A509-50ACA690B37D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Documents/Deliverable_1/CSwap_Deliverable_1_SprintBacklog_1.xlsx
+++ b/Documents/Deliverable_1/CSwap_Deliverable_1_SprintBacklog_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landonthibodeau/git/COS420_Project/Documents/Deliverable_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyc\Documents\GitHub\COS420_Project\Documents\Deliverable_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095600A0-2F84-D24E-A870-D3A66EF5FA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9540CF34-B61B-48CC-B8E6-EAB49ED0A175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{49D0CED5-A062-EC43-94BD-79A001146B34}"/>
+    <workbookView xWindow="6380" yWindow="2000" windowWidth="28800" windowHeight="15460" xr2:uid="{49D0CED5-A062-EC43-94BD-79A001146B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.1640625" style="3" customWidth="1"/>
@@ -504,13 +504,13 @@
     <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -634,7 +634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
